--- a/06_Face_recognition_spoof_detection/Face_spoof_detection_img/exe/resnet50_classifier_bmp/resnet50_classifier_bmp_summary.xlsx
+++ b/06_Face_recognition_spoof_detection/Face_spoof_detection_img/exe/resnet50_classifier_bmp/resnet50_classifier_bmp_summary.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$4:$S$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$4:$S$80</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -729,12 +729,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>post_0_-1_imagescaler</t>
+          <t>post_0_0_conv_yuv2rgb</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>imagescaler</t>
+          <t>conv_yuv2rgb</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -759,219 +759,213 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>224</v>
+        <v>640</v>
       </c>
       <c r="N5" t="n">
-        <v>224</v>
+        <v>480</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>224</v>
+        <v>640</v>
       </c>
       <c r="Q5" t="n">
-        <v>224</v>
+        <v>480</v>
       </c>
       <c r="S5" t="n">
-        <v>61</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" outlineLevel="1">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/conv1/Conv_output_0</t>
+          <t>post_0_1_crop</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>crop</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
+        <v>640</v>
+      </c>
+      <c r="N6" t="n">
+        <v>480</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
         <v>224</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>224</v>
       </c>
-      <c r="O6" t="n">
-        <v>64</v>
-      </c>
-      <c r="P6" t="n">
-        <v>112</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>112</v>
-      </c>
       <c r="S6" t="n">
-        <v>2839</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" outlineLevel="1">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/maxpool/MaxPool_output_0</t>
+          <t>post_0_1_imagescaler</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MaxPool</t>
+          <t>imagescaler</t>
         </is>
       </c>
       <c r="D7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
+      <c r="M7" t="n">
+        <v>224</v>
+      </c>
+      <c r="N7" t="n">
+        <v>224</v>
+      </c>
+      <c r="O7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>64</v>
-      </c>
-      <c r="M7" t="n">
-        <v>112</v>
-      </c>
-      <c r="N7" t="n">
-        <v>112</v>
-      </c>
-      <c r="O7" t="n">
-        <v>64</v>
-      </c>
       <c r="P7" t="n">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="Q7" t="n">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="S7" t="n">
-        <v>1255</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" outlineLevel="1">
       <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Conv&gt;Relu</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>/layer1/layer1.0/conv1/Conv_output_0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Conv&gt;Relu</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="N8" t="n">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="O8" t="n">
         <v>64</v>
       </c>
       <c r="P8" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="Q8" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="S8" t="n">
-        <v>251</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="9" outlineLevel="1">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/layer1/layer1.0/conv2/Conv_output_0</t>
+          <t>324</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>MaxPool</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -981,10 +975,10 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1002,10 +996,10 @@
         <v>64</v>
       </c>
       <c r="M9" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="N9" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="O9" t="n">
         <v>64</v>
@@ -1017,21 +1011,21 @@
         <v>56</v>
       </c>
       <c r="S9" t="n">
-        <v>531</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="10" outlineLevel="1">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/layer1/layer1.0/conv3/Conv_output_0</t>
+          <t>499</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1068,7 +1062,7 @@
         <v>56</v>
       </c>
       <c r="O10" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="P10" t="n">
         <v>56</v>
@@ -1077,28 +1071,28 @@
         <v>56</v>
       </c>
       <c r="S10" t="n">
-        <v>628</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" outlineLevel="1">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/layer1/layer1.0/downsample/downsample.0/Conv_output_0</t>
+          <t>502</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -1107,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>64</v>
@@ -1128,7 +1122,7 @@
         <v>56</v>
       </c>
       <c r="O11" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="P11" t="n">
         <v>56</v>
@@ -1137,21 +1131,21 @@
         <v>56</v>
       </c>
       <c r="S11" t="n">
-        <v>628</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" outlineLevel="1">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/layer1/layer1.0/Add_output_0</t>
+          <t>505</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1164,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1179,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="M12" t="n">
         <v>56</v>
@@ -1197,21 +1191,21 @@
         <v>56</v>
       </c>
       <c r="S12" t="n">
-        <v>1506</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" outlineLevel="1">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/layer1/layer1.1/conv1/Conv_output_0</t>
+          <t>508</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1239,16 +1233,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
+        <v>64</v>
+      </c>
+      <c r="M13" t="n">
+        <v>56</v>
+      </c>
+      <c r="N13" t="n">
+        <v>56</v>
+      </c>
+      <c r="O13" t="n">
         <v>256</v>
-      </c>
-      <c r="M13" t="n">
-        <v>56</v>
-      </c>
-      <c r="N13" t="n">
-        <v>56</v>
-      </c>
-      <c r="O13" t="n">
-        <v>64</v>
       </c>
       <c r="P13" t="n">
         <v>56</v>
@@ -1262,44 +1256,44 @@
     </row>
     <row r="14" outlineLevel="1">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/layer1/layer1.1/conv2/Conv_output_0</t>
+          <t>335</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="M14" t="n">
         <v>56</v>
@@ -1308,7 +1302,7 @@
         <v>56</v>
       </c>
       <c r="O14" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="P14" t="n">
         <v>56</v>
@@ -1317,21 +1311,21 @@
         <v>56</v>
       </c>
       <c r="S14" t="n">
-        <v>531</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="15" outlineLevel="1">
       <c r="A15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/layer1/layer1.1/conv3/Conv_output_0</t>
+          <t>511</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1359,16 +1353,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>256</v>
+      </c>
+      <c r="M15" t="n">
+        <v>56</v>
+      </c>
+      <c r="N15" t="n">
+        <v>56</v>
+      </c>
+      <c r="O15" t="n">
         <v>64</v>
-      </c>
-      <c r="M15" t="n">
-        <v>56</v>
-      </c>
-      <c r="N15" t="n">
-        <v>56</v>
-      </c>
-      <c r="O15" t="n">
-        <v>256</v>
       </c>
       <c r="P15" t="n">
         <v>56</v>
@@ -1382,44 +1376,44 @@
     </row>
     <row r="16" outlineLevel="1">
       <c r="A16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/layer1/layer1.1/Add_output_0</t>
+          <t>514</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="M16" t="n">
         <v>56</v>
@@ -1428,7 +1422,7 @@
         <v>56</v>
       </c>
       <c r="O16" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="P16" t="n">
         <v>56</v>
@@ -1437,21 +1431,21 @@
         <v>56</v>
       </c>
       <c r="S16" t="n">
-        <v>1506</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" outlineLevel="1">
       <c r="A17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/layer1/layer1.2/conv1/Conv_output_0</t>
+          <t>517</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1479,16 +1473,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>64</v>
+      </c>
+      <c r="M17" t="n">
+        <v>56</v>
+      </c>
+      <c r="N17" t="n">
+        <v>56</v>
+      </c>
+      <c r="O17" t="n">
         <v>256</v>
-      </c>
-      <c r="M17" t="n">
-        <v>56</v>
-      </c>
-      <c r="N17" t="n">
-        <v>56</v>
-      </c>
-      <c r="O17" t="n">
-        <v>64</v>
       </c>
       <c r="P17" t="n">
         <v>56</v>
@@ -1502,44 +1496,44 @@
     </row>
     <row r="18" outlineLevel="1">
       <c r="A18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/layer1/layer1.2/conv2/Conv_output_0</t>
+          <t>345</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="M18" t="n">
         <v>56</v>
@@ -1548,7 +1542,7 @@
         <v>56</v>
       </c>
       <c r="O18" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="P18" t="n">
         <v>56</v>
@@ -1557,21 +1551,21 @@
         <v>56</v>
       </c>
       <c r="S18" t="n">
-        <v>531</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="19" outlineLevel="1">
       <c r="A19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/layer1/layer1.2/conv3/Conv_output_0</t>
+          <t>520</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1599,16 +1593,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>256</v>
+      </c>
+      <c r="M19" t="n">
+        <v>56</v>
+      </c>
+      <c r="N19" t="n">
+        <v>56</v>
+      </c>
+      <c r="O19" t="n">
         <v>64</v>
-      </c>
-      <c r="M19" t="n">
-        <v>56</v>
-      </c>
-      <c r="N19" t="n">
-        <v>56</v>
-      </c>
-      <c r="O19" t="n">
-        <v>256</v>
       </c>
       <c r="P19" t="n">
         <v>56</v>
@@ -1622,44 +1616,44 @@
     </row>
     <row r="20" outlineLevel="1">
       <c r="A20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/layer1/layer1.2/Add_output_0</t>
+          <t>523</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="M20" t="n">
         <v>56</v>
@@ -1668,7 +1662,7 @@
         <v>56</v>
       </c>
       <c r="O20" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="P20" t="n">
         <v>56</v>
@@ -1677,21 +1671,21 @@
         <v>56</v>
       </c>
       <c r="S20" t="n">
-        <v>1506</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" outlineLevel="1">
       <c r="A21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/layer2/layer2.0/conv1/Conv_output_0</t>
+          <t>526</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1719,17 +1713,17 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>64</v>
+      </c>
+      <c r="M21" t="n">
+        <v>56</v>
+      </c>
+      <c r="N21" t="n">
+        <v>56</v>
+      </c>
+      <c r="O21" t="n">
         <v>256</v>
       </c>
-      <c r="M21" t="n">
-        <v>56</v>
-      </c>
-      <c r="N21" t="n">
-        <v>56</v>
-      </c>
-      <c r="O21" t="n">
-        <v>128</v>
-      </c>
       <c r="P21" t="n">
         <v>56</v>
       </c>
@@ -1737,49 +1731,49 @@
         <v>56</v>
       </c>
       <c r="S21" t="n">
-        <v>513</v>
+        <v>628</v>
       </c>
     </row>
     <row r="22" outlineLevel="1">
       <c r="A22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/layer2/layer2.0/conv2/Conv_output_0</t>
+          <t>355</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="M22" t="n">
         <v>56</v>
@@ -1788,30 +1782,30 @@
         <v>56</v>
       </c>
       <c r="O22" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="P22" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="Q22" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="S22" t="n">
-        <v>556</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="23" outlineLevel="1">
       <c r="A23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>/layer2/layer2.0/conv3/Conv_output_0</t>
+          <t>529</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1839,46 +1833,46 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>256</v>
+      </c>
+      <c r="M23" t="n">
+        <v>56</v>
+      </c>
+      <c r="N23" t="n">
+        <v>56</v>
+      </c>
+      <c r="O23" t="n">
         <v>128</v>
       </c>
-      <c r="M23" t="n">
-        <v>28</v>
-      </c>
-      <c r="N23" t="n">
-        <v>28</v>
-      </c>
-      <c r="O23" t="n">
-        <v>512</v>
-      </c>
       <c r="P23" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="Q23" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="S23" t="n">
-        <v>260</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" outlineLevel="1">
       <c r="A24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/layer2/layer2.0/downsample/downsample.0/Conv_output_0</t>
+          <t>532</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -1887,19 +1881,19 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M24" t="n">
         <v>56</v>
@@ -1908,7 +1902,7 @@
         <v>56</v>
       </c>
       <c r="O24" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="P24" t="n">
         <v>28</v>
@@ -1917,21 +1911,21 @@
         <v>28</v>
       </c>
       <c r="S24" t="n">
-        <v>513</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" outlineLevel="1">
       <c r="A25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/layer2/layer2.0/Add_output_0</t>
+          <t>535</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1944,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1959,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="M25" t="n">
         <v>28</v>
@@ -1977,21 +1971,21 @@
         <v>28</v>
       </c>
       <c r="S25" t="n">
-        <v>753</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" outlineLevel="1">
       <c r="A26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/layer2/layer2.1/conv1/Conv_output_0</t>
+          <t>538</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2001,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2019,17 +2013,17 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>256</v>
+      </c>
+      <c r="M26" t="n">
+        <v>56</v>
+      </c>
+      <c r="N26" t="n">
+        <v>56</v>
+      </c>
+      <c r="O26" t="n">
         <v>512</v>
       </c>
-      <c r="M26" t="n">
-        <v>28</v>
-      </c>
-      <c r="N26" t="n">
-        <v>28</v>
-      </c>
-      <c r="O26" t="n">
-        <v>128</v>
-      </c>
       <c r="P26" t="n">
         <v>28</v>
       </c>
@@ -2037,49 +2031,49 @@
         <v>28</v>
       </c>
       <c r="S26" t="n">
-        <v>255</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" outlineLevel="1">
       <c r="A27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/layer2/layer2.1/conv2/Conv_output_0</t>
+          <t>367</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="M27" t="n">
         <v>28</v>
@@ -2088,7 +2082,7 @@
         <v>28</v>
       </c>
       <c r="O27" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="P27" t="n">
         <v>28</v>
@@ -2097,21 +2091,21 @@
         <v>28</v>
       </c>
       <c r="S27" t="n">
-        <v>520</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" outlineLevel="1">
       <c r="A28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/layer2/layer2.1/conv3/Conv_output_0</t>
+          <t>541</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2139,17 +2133,17 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>512</v>
+      </c>
+      <c r="M28" t="n">
+        <v>28</v>
+      </c>
+      <c r="N28" t="n">
+        <v>28</v>
+      </c>
+      <c r="O28" t="n">
         <v>128</v>
       </c>
-      <c r="M28" t="n">
-        <v>28</v>
-      </c>
-      <c r="N28" t="n">
-        <v>28</v>
-      </c>
-      <c r="O28" t="n">
-        <v>512</v>
-      </c>
       <c r="P28" t="n">
         <v>28</v>
       </c>
@@ -2157,49 +2151,49 @@
         <v>28</v>
       </c>
       <c r="S28" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" outlineLevel="1">
       <c r="A29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/layer2/layer2.1/Add_output_0</t>
+          <t>544</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="M29" t="n">
         <v>28</v>
@@ -2208,7 +2202,7 @@
         <v>28</v>
       </c>
       <c r="O29" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="P29" t="n">
         <v>28</v>
@@ -2217,21 +2211,21 @@
         <v>28</v>
       </c>
       <c r="S29" t="n">
-        <v>753</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" outlineLevel="1">
       <c r="A30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/layer2/layer2.2/conv1/Conv_output_0</t>
+          <t>547</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2259,17 +2253,17 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
+        <v>128</v>
+      </c>
+      <c r="M30" t="n">
+        <v>28</v>
+      </c>
+      <c r="N30" t="n">
+        <v>28</v>
+      </c>
+      <c r="O30" t="n">
         <v>512</v>
       </c>
-      <c r="M30" t="n">
-        <v>28</v>
-      </c>
-      <c r="N30" t="n">
-        <v>28</v>
-      </c>
-      <c r="O30" t="n">
-        <v>128</v>
-      </c>
       <c r="P30" t="n">
         <v>28</v>
       </c>
@@ -2277,49 +2271,49 @@
         <v>28</v>
       </c>
       <c r="S30" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" outlineLevel="1">
       <c r="A31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/layer2/layer2.2/conv2/Conv_output_0</t>
+          <t>377</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="M31" t="n">
         <v>28</v>
@@ -2328,7 +2322,7 @@
         <v>28</v>
       </c>
       <c r="O31" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="P31" t="n">
         <v>28</v>
@@ -2337,21 +2331,21 @@
         <v>28</v>
       </c>
       <c r="S31" t="n">
-        <v>520</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" outlineLevel="1">
       <c r="A32" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/layer2/layer2.2/conv3/Conv_output_0</t>
+          <t>550</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2379,17 +2373,17 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>512</v>
+      </c>
+      <c r="M32" t="n">
+        <v>28</v>
+      </c>
+      <c r="N32" t="n">
+        <v>28</v>
+      </c>
+      <c r="O32" t="n">
         <v>128</v>
       </c>
-      <c r="M32" t="n">
-        <v>28</v>
-      </c>
-      <c r="N32" t="n">
-        <v>28</v>
-      </c>
-      <c r="O32" t="n">
-        <v>512</v>
-      </c>
       <c r="P32" t="n">
         <v>28</v>
       </c>
@@ -2397,49 +2391,49 @@
         <v>28</v>
       </c>
       <c r="S32" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" outlineLevel="1">
       <c r="A33" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/layer2/layer2.2/Add_output_0</t>
+          <t>553</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="M33" t="n">
         <v>28</v>
@@ -2448,7 +2442,7 @@
         <v>28</v>
       </c>
       <c r="O33" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="P33" t="n">
         <v>28</v>
@@ -2457,21 +2451,21 @@
         <v>28</v>
       </c>
       <c r="S33" t="n">
-        <v>753</v>
+        <v>520</v>
       </c>
     </row>
     <row r="34" outlineLevel="1">
       <c r="A34" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/layer2/layer2.3/conv1/Conv_output_0</t>
+          <t>556</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -2499,17 +2493,17 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>128</v>
+      </c>
+      <c r="M34" t="n">
+        <v>28</v>
+      </c>
+      <c r="N34" t="n">
+        <v>28</v>
+      </c>
+      <c r="O34" t="n">
         <v>512</v>
       </c>
-      <c r="M34" t="n">
-        <v>28</v>
-      </c>
-      <c r="N34" t="n">
-        <v>28</v>
-      </c>
-      <c r="O34" t="n">
-        <v>128</v>
-      </c>
       <c r="P34" t="n">
         <v>28</v>
       </c>
@@ -2517,49 +2511,49 @@
         <v>28</v>
       </c>
       <c r="S34" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" outlineLevel="1">
       <c r="A35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/layer2/layer2.3/conv2/Conv_output_0</t>
+          <t>387</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="M35" t="n">
         <v>28</v>
@@ -2568,7 +2562,7 @@
         <v>28</v>
       </c>
       <c r="O35" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="P35" t="n">
         <v>28</v>
@@ -2577,21 +2571,21 @@
         <v>28</v>
       </c>
       <c r="S35" t="n">
-        <v>520</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" outlineLevel="1">
       <c r="A36" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/layer2/layer2.3/conv3/Conv_output_0</t>
+          <t>559</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -2619,17 +2613,17 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>512</v>
+      </c>
+      <c r="M36" t="n">
+        <v>28</v>
+      </c>
+      <c r="N36" t="n">
+        <v>28</v>
+      </c>
+      <c r="O36" t="n">
         <v>128</v>
       </c>
-      <c r="M36" t="n">
-        <v>28</v>
-      </c>
-      <c r="N36" t="n">
-        <v>28</v>
-      </c>
-      <c r="O36" t="n">
-        <v>512</v>
-      </c>
       <c r="P36" t="n">
         <v>28</v>
       </c>
@@ -2637,49 +2631,49 @@
         <v>28</v>
       </c>
       <c r="S36" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" outlineLevel="1">
       <c r="A37" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/layer2/layer2.3/Add_output_0</t>
+          <t>562</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="M37" t="n">
         <v>28</v>
@@ -2688,7 +2682,7 @@
         <v>28</v>
       </c>
       <c r="O37" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="P37" t="n">
         <v>28</v>
@@ -2697,21 +2691,21 @@
         <v>28</v>
       </c>
       <c r="S37" t="n">
-        <v>753</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" outlineLevel="1">
       <c r="A38" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/layer3/layer3.0/conv1/Conv_output_0</t>
+          <t>565</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2739,17 +2733,17 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>128</v>
+      </c>
+      <c r="M38" t="n">
+        <v>28</v>
+      </c>
+      <c r="N38" t="n">
+        <v>28</v>
+      </c>
+      <c r="O38" t="n">
         <v>512</v>
       </c>
-      <c r="M38" t="n">
-        <v>28</v>
-      </c>
-      <c r="N38" t="n">
-        <v>28</v>
-      </c>
-      <c r="O38" t="n">
-        <v>256</v>
-      </c>
       <c r="P38" t="n">
         <v>28</v>
       </c>
@@ -2757,49 +2751,49 @@
         <v>28</v>
       </c>
       <c r="S38" t="n">
-        <v>510</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" outlineLevel="1">
       <c r="A39" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/layer3/layer3.0/conv2/Conv_output_0</t>
+          <t>397</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="M39" t="n">
         <v>28</v>
@@ -2808,30 +2802,30 @@
         <v>28</v>
       </c>
       <c r="O39" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="P39" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q39" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="S39" t="n">
-        <v>550</v>
+        <v>753</v>
       </c>
     </row>
     <row r="40" outlineLevel="1">
       <c r="A40" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/layer3/layer3.0/conv3/Conv_output_0</t>
+          <t>568</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2859,46 +2853,46 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>512</v>
+      </c>
+      <c r="M40" t="n">
+        <v>28</v>
+      </c>
+      <c r="N40" t="n">
+        <v>28</v>
+      </c>
+      <c r="O40" t="n">
         <v>256</v>
       </c>
-      <c r="M40" t="n">
-        <v>14</v>
-      </c>
-      <c r="N40" t="n">
-        <v>14</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1024</v>
-      </c>
       <c r="P40" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q40" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="S40" t="n">
-        <v>257</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" outlineLevel="1">
       <c r="A41" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/layer3/layer3.0/downsample/downsample.0/Conv_output_0</t>
+          <t>571</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>2</v>
@@ -2907,19 +2901,19 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M41" t="n">
         <v>28</v>
@@ -2928,7 +2922,7 @@
         <v>28</v>
       </c>
       <c r="O41" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P41" t="n">
         <v>14</v>
@@ -2937,21 +2931,21 @@
         <v>14</v>
       </c>
       <c r="S41" t="n">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" outlineLevel="1">
       <c r="A42" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/layer3/layer3.0/Add_output_0</t>
+          <t>574</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2964,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2979,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M42" t="n">
         <v>14</v>
@@ -2997,21 +2991,21 @@
         <v>14</v>
       </c>
       <c r="S42" t="n">
-        <v>377</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" outlineLevel="1">
       <c r="A43" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/layer3/layer3.1/conv1/Conv_output_0</t>
+          <t>577</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -3021,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3039,17 +3033,17 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>512</v>
+      </c>
+      <c r="M43" t="n">
+        <v>28</v>
+      </c>
+      <c r="N43" t="n">
+        <v>28</v>
+      </c>
+      <c r="O43" t="n">
         <v>1024</v>
       </c>
-      <c r="M43" t="n">
-        <v>14</v>
-      </c>
-      <c r="N43" t="n">
-        <v>14</v>
-      </c>
-      <c r="O43" t="n">
-        <v>256</v>
-      </c>
       <c r="P43" t="n">
         <v>14</v>
       </c>
@@ -3057,49 +3051,49 @@
         <v>14</v>
       </c>
       <c r="S43" t="n">
-        <v>256</v>
+        <v>510</v>
       </c>
     </row>
     <row r="44" outlineLevel="1">
       <c r="A44" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/layer3/layer3.1/conv2/Conv_output_0</t>
+          <t>409</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M44" t="n">
         <v>14</v>
@@ -3108,7 +3102,7 @@
         <v>14</v>
       </c>
       <c r="O44" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P44" t="n">
         <v>14</v>
@@ -3117,21 +3111,21 @@
         <v>14</v>
       </c>
       <c r="S44" t="n">
-        <v>518</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" outlineLevel="1">
       <c r="A45" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/layer3/layer3.1/conv3/Conv_output_0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -3159,17 +3153,17 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M45" t="n">
+        <v>14</v>
+      </c>
+      <c r="N45" t="n">
+        <v>14</v>
+      </c>
+      <c r="O45" t="n">
         <v>256</v>
       </c>
-      <c r="M45" t="n">
-        <v>14</v>
-      </c>
-      <c r="N45" t="n">
-        <v>14</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1024</v>
-      </c>
       <c r="P45" t="n">
         <v>14</v>
       </c>
@@ -3177,49 +3171,49 @@
         <v>14</v>
       </c>
       <c r="S45" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" outlineLevel="1">
       <c r="A46" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/layer3/layer3.1/Add_output_0</t>
+          <t>583</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M46" t="n">
         <v>14</v>
@@ -3228,7 +3222,7 @@
         <v>14</v>
       </c>
       <c r="O46" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P46" t="n">
         <v>14</v>
@@ -3237,21 +3231,21 @@
         <v>14</v>
       </c>
       <c r="S46" t="n">
-        <v>377</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" outlineLevel="1">
       <c r="A47" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/layer3/layer3.2/conv1/Conv_output_0</t>
+          <t>586</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -3279,17 +3273,17 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
+        <v>256</v>
+      </c>
+      <c r="M47" t="n">
+        <v>14</v>
+      </c>
+      <c r="N47" t="n">
+        <v>14</v>
+      </c>
+      <c r="O47" t="n">
         <v>1024</v>
       </c>
-      <c r="M47" t="n">
-        <v>14</v>
-      </c>
-      <c r="N47" t="n">
-        <v>14</v>
-      </c>
-      <c r="O47" t="n">
-        <v>256</v>
-      </c>
       <c r="P47" t="n">
         <v>14</v>
       </c>
@@ -3297,49 +3291,49 @@
         <v>14</v>
       </c>
       <c r="S47" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" outlineLevel="1">
       <c r="A48" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/layer3/layer3.2/conv2/Conv_output_0</t>
+          <t>419</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M48" t="n">
         <v>14</v>
@@ -3348,7 +3342,7 @@
         <v>14</v>
       </c>
       <c r="O48" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P48" t="n">
         <v>14</v>
@@ -3357,21 +3351,21 @@
         <v>14</v>
       </c>
       <c r="S48" t="n">
-        <v>518</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" outlineLevel="1">
       <c r="A49" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/layer3/layer3.2/conv3/Conv_output_0</t>
+          <t>589</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -3399,17 +3393,17 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M49" t="n">
+        <v>14</v>
+      </c>
+      <c r="N49" t="n">
+        <v>14</v>
+      </c>
+      <c r="O49" t="n">
         <v>256</v>
       </c>
-      <c r="M49" t="n">
-        <v>14</v>
-      </c>
-      <c r="N49" t="n">
-        <v>14</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1024</v>
-      </c>
       <c r="P49" t="n">
         <v>14</v>
       </c>
@@ -3417,49 +3411,49 @@
         <v>14</v>
       </c>
       <c r="S49" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" outlineLevel="1">
       <c r="A50" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/layer3/layer3.2/Add_output_0</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M50" t="n">
         <v>14</v>
@@ -3468,7 +3462,7 @@
         <v>14</v>
       </c>
       <c r="O50" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P50" t="n">
         <v>14</v>
@@ -3477,21 +3471,21 @@
         <v>14</v>
       </c>
       <c r="S50" t="n">
-        <v>377</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" outlineLevel="1">
       <c r="A51" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>/layer3/layer3.3/conv1/Conv_output_0</t>
+          <t>595</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -3519,17 +3513,17 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
+        <v>256</v>
+      </c>
+      <c r="M51" t="n">
+        <v>14</v>
+      </c>
+      <c r="N51" t="n">
+        <v>14</v>
+      </c>
+      <c r="O51" t="n">
         <v>1024</v>
       </c>
-      <c r="M51" t="n">
-        <v>14</v>
-      </c>
-      <c r="N51" t="n">
-        <v>14</v>
-      </c>
-      <c r="O51" t="n">
-        <v>256</v>
-      </c>
       <c r="P51" t="n">
         <v>14</v>
       </c>
@@ -3537,49 +3531,49 @@
         <v>14</v>
       </c>
       <c r="S51" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" outlineLevel="1">
       <c r="A52" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>/layer3/layer3.3/conv2/Conv_output_0</t>
+          <t>429</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M52" t="n">
         <v>14</v>
@@ -3588,7 +3582,7 @@
         <v>14</v>
       </c>
       <c r="O52" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P52" t="n">
         <v>14</v>
@@ -3597,21 +3591,21 @@
         <v>14</v>
       </c>
       <c r="S52" t="n">
-        <v>518</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" outlineLevel="1">
       <c r="A53" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>/layer3/layer3.3/conv3/Conv_output_0</t>
+          <t>598</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -3639,17 +3633,17 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M53" t="n">
+        <v>14</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14</v>
+      </c>
+      <c r="O53" t="n">
         <v>256</v>
       </c>
-      <c r="M53" t="n">
-        <v>14</v>
-      </c>
-      <c r="N53" t="n">
-        <v>14</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1024</v>
-      </c>
       <c r="P53" t="n">
         <v>14</v>
       </c>
@@ -3657,49 +3651,49 @@
         <v>14</v>
       </c>
       <c r="S53" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" outlineLevel="1">
       <c r="A54" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>/layer3/layer3.3/Add_output_0</t>
+          <t>601</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M54" t="n">
         <v>14</v>
@@ -3708,7 +3702,7 @@
         <v>14</v>
       </c>
       <c r="O54" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P54" t="n">
         <v>14</v>
@@ -3717,21 +3711,21 @@
         <v>14</v>
       </c>
       <c r="S54" t="n">
-        <v>377</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" outlineLevel="1">
       <c r="A55" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/layer3/layer3.4/conv1/Conv_output_0</t>
+          <t>604</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -3759,17 +3753,17 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
+        <v>256</v>
+      </c>
+      <c r="M55" t="n">
+        <v>14</v>
+      </c>
+      <c r="N55" t="n">
+        <v>14</v>
+      </c>
+      <c r="O55" t="n">
         <v>1024</v>
       </c>
-      <c r="M55" t="n">
-        <v>14</v>
-      </c>
-      <c r="N55" t="n">
-        <v>14</v>
-      </c>
-      <c r="O55" t="n">
-        <v>256</v>
-      </c>
       <c r="P55" t="n">
         <v>14</v>
       </c>
@@ -3777,49 +3771,49 @@
         <v>14</v>
       </c>
       <c r="S55" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" outlineLevel="1">
       <c r="A56" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/layer3/layer3.4/conv2/Conv_output_0</t>
+          <t>439</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M56" t="n">
         <v>14</v>
@@ -3828,7 +3822,7 @@
         <v>14</v>
       </c>
       <c r="O56" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P56" t="n">
         <v>14</v>
@@ -3837,21 +3831,21 @@
         <v>14</v>
       </c>
       <c r="S56" t="n">
-        <v>518</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" outlineLevel="1">
       <c r="A57" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>/layer3/layer3.4/conv3/Conv_output_0</t>
+          <t>607</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -3879,17 +3873,17 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M57" t="n">
+        <v>14</v>
+      </c>
+      <c r="N57" t="n">
+        <v>14</v>
+      </c>
+      <c r="O57" t="n">
         <v>256</v>
       </c>
-      <c r="M57" t="n">
-        <v>14</v>
-      </c>
-      <c r="N57" t="n">
-        <v>14</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1024</v>
-      </c>
       <c r="P57" t="n">
         <v>14</v>
       </c>
@@ -3897,49 +3891,49 @@
         <v>14</v>
       </c>
       <c r="S57" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" outlineLevel="1">
       <c r="A58" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>/layer3/layer3.4/Add_output_0</t>
+          <t>610</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M58" t="n">
         <v>14</v>
@@ -3948,7 +3942,7 @@
         <v>14</v>
       </c>
       <c r="O58" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P58" t="n">
         <v>14</v>
@@ -3957,21 +3951,21 @@
         <v>14</v>
       </c>
       <c r="S58" t="n">
-        <v>377</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59" outlineLevel="1">
       <c r="A59" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>/layer3/layer3.5/conv1/Conv_output_0</t>
+          <t>613</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -3999,17 +3993,17 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
+        <v>256</v>
+      </c>
+      <c r="M59" t="n">
+        <v>14</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14</v>
+      </c>
+      <c r="O59" t="n">
         <v>1024</v>
       </c>
-      <c r="M59" t="n">
-        <v>14</v>
-      </c>
-      <c r="N59" t="n">
-        <v>14</v>
-      </c>
-      <c r="O59" t="n">
-        <v>256</v>
-      </c>
       <c r="P59" t="n">
         <v>14</v>
       </c>
@@ -4017,49 +4011,49 @@
         <v>14</v>
       </c>
       <c r="S59" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" outlineLevel="1">
       <c r="A60" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>/layer3/layer3.5/conv2/Conv_output_0</t>
+          <t>449</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M60" t="n">
         <v>14</v>
@@ -4068,7 +4062,7 @@
         <v>14</v>
       </c>
       <c r="O60" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P60" t="n">
         <v>14</v>
@@ -4077,21 +4071,21 @@
         <v>14</v>
       </c>
       <c r="S60" t="n">
-        <v>518</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" outlineLevel="1">
       <c r="A61" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>/layer3/layer3.5/conv3/Conv_output_0</t>
+          <t>616</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -4119,17 +4113,17 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M61" t="n">
+        <v>14</v>
+      </c>
+      <c r="N61" t="n">
+        <v>14</v>
+      </c>
+      <c r="O61" t="n">
         <v>256</v>
       </c>
-      <c r="M61" t="n">
-        <v>14</v>
-      </c>
-      <c r="N61" t="n">
-        <v>14</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1024</v>
-      </c>
       <c r="P61" t="n">
         <v>14</v>
       </c>
@@ -4137,49 +4131,49 @@
         <v>14</v>
       </c>
       <c r="S61" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" outlineLevel="1">
       <c r="A62" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>/layer3/layer3.5/Add_output_0</t>
+          <t>619</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M62" t="n">
         <v>14</v>
@@ -4188,7 +4182,7 @@
         <v>14</v>
       </c>
       <c r="O62" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P62" t="n">
         <v>14</v>
@@ -4197,21 +4191,21 @@
         <v>14</v>
       </c>
       <c r="S62" t="n">
-        <v>377</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" outlineLevel="1">
       <c r="A63" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>/layer4/layer4.0/conv1/Conv_output_0</t>
+          <t>622</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -4239,17 +4233,17 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
+        <v>256</v>
+      </c>
+      <c r="M63" t="n">
+        <v>14</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14</v>
+      </c>
+      <c r="O63" t="n">
         <v>1024</v>
       </c>
-      <c r="M63" t="n">
-        <v>14</v>
-      </c>
-      <c r="N63" t="n">
-        <v>14</v>
-      </c>
-      <c r="O63" t="n">
-        <v>512</v>
-      </c>
       <c r="P63" t="n">
         <v>14</v>
       </c>
@@ -4257,49 +4251,49 @@
         <v>14</v>
       </c>
       <c r="S63" t="n">
-        <v>515</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" outlineLevel="1">
       <c r="A64" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>/layer4/layer4.0/conv2/Conv_output_0</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M64" t="n">
         <v>14</v>
@@ -4308,30 +4302,30 @@
         <v>14</v>
       </c>
       <c r="O64" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="P64" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q64" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S64" t="n">
-        <v>1424</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" outlineLevel="1">
       <c r="A65" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>/layer4/layer4.0/conv3/Conv_output_0</t>
+          <t>625</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -4359,46 +4353,46 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M65" t="n">
+        <v>14</v>
+      </c>
+      <c r="N65" t="n">
+        <v>14</v>
+      </c>
+      <c r="O65" t="n">
         <v>512</v>
       </c>
-      <c r="M65" t="n">
-        <v>7</v>
-      </c>
-      <c r="N65" t="n">
-        <v>7</v>
-      </c>
-      <c r="O65" t="n">
-        <v>2048</v>
-      </c>
       <c r="P65" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q65" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S65" t="n">
-        <v>657</v>
+        <v>515</v>
       </c>
     </row>
     <row r="66" outlineLevel="1">
       <c r="A66" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>/layer4/layer4.0/downsample/downsample.0/Conv_output_0</t>
+          <t>628</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>2</v>
@@ -4407,19 +4401,19 @@
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="M66" t="n">
         <v>14</v>
@@ -4428,7 +4422,7 @@
         <v>14</v>
       </c>
       <c r="O66" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="P66" t="n">
         <v>7</v>
@@ -4437,21 +4431,21 @@
         <v>7</v>
       </c>
       <c r="S66" t="n">
-        <v>1312</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="67" outlineLevel="1">
       <c r="A67" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/layer4/layer4.0/Add_output_0</t>
+          <t>631</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -4464,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4479,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="M67" t="n">
         <v>7</v>
@@ -4497,21 +4491,21 @@
         <v>7</v>
       </c>
       <c r="S67" t="n">
-        <v>189</v>
+        <v>657</v>
       </c>
     </row>
     <row r="68" outlineLevel="1">
       <c r="A68" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>/layer4/layer4.1/conv1/Conv_output_0</t>
+          <t>634</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -4521,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4539,16 +4533,16 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M68" t="n">
+        <v>14</v>
+      </c>
+      <c r="N68" t="n">
+        <v>14</v>
+      </c>
+      <c r="O68" t="n">
         <v>2048</v>
-      </c>
-      <c r="M68" t="n">
-        <v>7</v>
-      </c>
-      <c r="N68" t="n">
-        <v>7</v>
-      </c>
-      <c r="O68" t="n">
-        <v>512</v>
       </c>
       <c r="P68" t="n">
         <v>7</v>
@@ -4557,49 +4551,49 @@
         <v>7</v>
       </c>
       <c r="S68" t="n">
-        <v>519</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="69" outlineLevel="1">
       <c r="A69" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>/layer4/layer4.1/conv2/Conv_output_0</t>
+          <t>471</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="M69" t="n">
         <v>7</v>
@@ -4608,7 +4602,7 @@
         <v>7</v>
       </c>
       <c r="O69" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="P69" t="n">
         <v>7</v>
@@ -4617,21 +4611,21 @@
         <v>7</v>
       </c>
       <c r="S69" t="n">
-        <v>1475</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" outlineLevel="1">
       <c r="A70" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>/layer4/layer4.1/conv3/Conv_output_0</t>
+          <t>637</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -4659,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="M70" t="n">
         <v>7</v>
@@ -4668,7 +4662,7 @@
         <v>7</v>
       </c>
       <c r="O70" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="P70" t="n">
         <v>7</v>
@@ -4677,49 +4671,49 @@
         <v>7</v>
       </c>
       <c r="S70" t="n">
-        <v>657</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" outlineLevel="1">
       <c r="A71" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>/layer4/layer4.1/Add_output_0</t>
+          <t>640</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="M71" t="n">
         <v>7</v>
@@ -4728,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="O71" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="P71" t="n">
         <v>7</v>
@@ -4737,21 +4731,21 @@
         <v>7</v>
       </c>
       <c r="S71" t="n">
-        <v>189</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="72" outlineLevel="1">
       <c r="A72" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>/layer4/layer4.2/conv1/Conv_output_0</t>
+          <t>643</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -4779,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="M72" t="n">
         <v>7</v>
@@ -4788,7 +4782,7 @@
         <v>7</v>
       </c>
       <c r="O72" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="P72" t="n">
         <v>7</v>
@@ -4797,49 +4791,49 @@
         <v>7</v>
       </c>
       <c r="S72" t="n">
-        <v>519</v>
+        <v>657</v>
       </c>
     </row>
     <row r="73" outlineLevel="1">
       <c r="A73" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/layer4/layer4.2/conv2/Conv_output_0</t>
+          <t>481</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="M73" t="n">
         <v>7</v>
@@ -4848,7 +4842,7 @@
         <v>7</v>
       </c>
       <c r="O73" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="P73" t="n">
         <v>7</v>
@@ -4857,21 +4851,21 @@
         <v>7</v>
       </c>
       <c r="S73" t="n">
-        <v>1475</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" outlineLevel="1">
       <c r="A74" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/layer4/layer4.2/conv3/Conv_output_0</t>
+          <t>646</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -4899,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="M74" t="n">
         <v>7</v>
@@ -4908,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="O74" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="P74" t="n">
         <v>7</v>
@@ -4917,49 +4911,49 @@
         <v>7</v>
       </c>
       <c r="S74" t="n">
-        <v>657</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" outlineLevel="1">
       <c r="A75" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/layer4/layer4.2/Add_output_0</t>
+          <t>649</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="M75" t="n">
         <v>7</v>
@@ -4968,7 +4962,7 @@
         <v>7</v>
       </c>
       <c r="O75" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="P75" t="n">
         <v>7</v>
@@ -4977,34 +4971,34 @@
         <v>7</v>
       </c>
       <c r="S75" t="n">
-        <v>189</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="76" outlineLevel="1">
       <c r="A76" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/avgpool/GlobalAveragePool_output_0</t>
+          <t>652</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GlobalAveragePool</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5019,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="M76" t="n">
         <v>7</v>
@@ -5031,27 +5025,27 @@
         <v>2048</v>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S76" t="n">
-        <v>58</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" outlineLevel="1">
       <c r="A77" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>output</t>
+          <t>491</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -5064,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5082,47 +5076,50 @@
         <v>2048</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O77" t="n">
-        <v>2</v>
+        <v>2048</v>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S77" t="n">
-        <v>6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" outlineLevel="1">
       <c r="A78" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>post_0_0_softmax</t>
+          <t>493</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>softmax</t>
+          <t>GlobalAveragePool</t>
         </is>
       </c>
       <c r="D78" t="n">
+        <v>7</v>
+      </c>
+      <c r="E78" t="n">
+        <v>7</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
         <v>-1</v>
       </c>
-      <c r="E78" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-1</v>
-      </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
@@ -5136,16 +5133,16 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>2048</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O78" t="n">
-        <v>2</v>
+        <v>2048</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -5154,53 +5151,170 @@
         <v>1</v>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" outlineLevel="1">
       <c r="A79" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>output</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Conv</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2048</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" outlineLevel="1">
+      <c r="A80" t="n">
+        <v>75</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>post_0_0_softmax</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>softmax</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" outlineLevel="1">
+      <c r="A81" t="n">
+        <v>76</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="S79" t="n">
-        <v>41295</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="S80" s="5" t="inlineStr">
-        <is>
-          <t>Calculated with DRP-AI running 400MHz</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="S81" s="5" t="inlineStr">
-        <is>
-          <t>Not considering bus congestion outside of DRP-AI Accelerator.</t>
-        </is>
+      <c r="S81" t="n">
+        <v>41718</v>
       </c>
     </row>
     <row r="82">
       <c r="S82" s="5" t="inlineStr">
         <is>
-          <t>Not considering memory bandwidth outside of DRP-AI Accelerator.</t>
+          <t>Calculated with DRP-AI running 400MHz</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="S83" s="5" t="inlineStr">
         <is>
+          <t>Not considering bus congestion outside of DRP-AI Accelerator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="S84" s="5" t="inlineStr">
+        <is>
+          <t>Not considering memory bandwidth outside of DRP-AI Accelerator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="S85" s="5" t="inlineStr">
+        <is>
           <t>The value may be changed without prior notice.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:S78"/>
-  <conditionalFormatting sqref="S5:S78">
+  <autoFilter ref="A4:S80"/>
+  <conditionalFormatting sqref="S5:S80">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>

--- a/06_Face_recognition_spoof_detection/Face_spoof_detection_img/exe/resnet50_classifier_bmp/resnet50_classifier_bmp_summary.xlsx
+++ b/06_Face_recognition_spoof_detection/Face_spoof_detection_img/exe/resnet50_classifier_bmp/resnet50_classifier_bmp_summary.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$4:$S$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$4:$S$78</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -729,12 +729,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>post_0_0_conv_yuv2rgb</t>
+          <t>post_0_-1_imagescaler</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>conv_yuv2rgb</t>
+          <t>imagescaler</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -759,148 +759,154 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>640</v>
+        <v>224</v>
       </c>
       <c r="N5" t="n">
-        <v>480</v>
+        <v>224</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>640</v>
+        <v>224</v>
       </c>
       <c r="Q5" t="n">
-        <v>480</v>
+        <v>224</v>
       </c>
       <c r="S5" t="n">
-        <v>243</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" outlineLevel="1">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>post_0_1_crop</t>
+          <t>/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>crop</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>640</v>
+        <v>224</v>
       </c>
       <c r="N6" t="n">
-        <v>480</v>
+        <v>224</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="P6" t="n">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="Q6" t="n">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="S6" t="n">
-        <v>180</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="7" outlineLevel="1">
       <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>/maxpool/MaxPool_output_0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MaxPool</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>post_0_1_imagescaler</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>imagescaler</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="G7" t="n">
         <v>-1</v>
       </c>
-      <c r="E7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-1</v>
-      </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="M7" t="n">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="N7" t="n">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="P7" t="n">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="Q7" t="n">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="S7" t="n">
-        <v>61</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="8" outlineLevel="1">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>/layer1/layer1.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -909,63 +915,63 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="M8" t="n">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="N8" t="n">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="O8" t="n">
         <v>64</v>
       </c>
       <c r="P8" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="Q8" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="S8" t="n">
-        <v>2839</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" outlineLevel="1">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>/layer1/layer1.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MaxPool</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -975,10 +981,10 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -996,10 +1002,10 @@
         <v>64</v>
       </c>
       <c r="M9" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="N9" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="O9" t="n">
         <v>64</v>
@@ -1011,21 +1017,21 @@
         <v>56</v>
       </c>
       <c r="S9" t="n">
-        <v>1255</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" outlineLevel="1">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>/layer1/layer1.0/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1062,7 +1068,7 @@
         <v>56</v>
       </c>
       <c r="O10" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="P10" t="n">
         <v>56</v>
@@ -1071,28 +1077,28 @@
         <v>56</v>
       </c>
       <c r="S10" t="n">
-        <v>251</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" outlineLevel="1">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>/layer1/layer1.0/downsample/downsample.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -1101,16 +1107,16 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>64</v>
@@ -1122,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="O11" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="P11" t="n">
         <v>56</v>
@@ -1131,21 +1137,21 @@
         <v>56</v>
       </c>
       <c r="S11" t="n">
-        <v>531</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" outlineLevel="1">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>/layer1/layer1.0/Add_output_0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1158,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1173,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="M12" t="n">
         <v>56</v>
@@ -1191,21 +1197,21 @@
         <v>56</v>
       </c>
       <c r="S12" t="n">
-        <v>628</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="13" outlineLevel="1">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>/layer1/layer1.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1233,16 +1239,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
+        <v>256</v>
+      </c>
+      <c r="M13" t="n">
+        <v>56</v>
+      </c>
+      <c r="N13" t="n">
+        <v>56</v>
+      </c>
+      <c r="O13" t="n">
         <v>64</v>
-      </c>
-      <c r="M13" t="n">
-        <v>56</v>
-      </c>
-      <c r="N13" t="n">
-        <v>56</v>
-      </c>
-      <c r="O13" t="n">
-        <v>256</v>
       </c>
       <c r="P13" t="n">
         <v>56</v>
@@ -1256,44 +1262,44 @@
     </row>
     <row r="14" outlineLevel="1">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>/layer1/layer1.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="M14" t="n">
         <v>56</v>
@@ -1302,7 +1308,7 @@
         <v>56</v>
       </c>
       <c r="O14" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="P14" t="n">
         <v>56</v>
@@ -1311,21 +1317,21 @@
         <v>56</v>
       </c>
       <c r="S14" t="n">
-        <v>1506</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" outlineLevel="1">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>/layer1/layer1.1/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1353,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>64</v>
+      </c>
+      <c r="M15" t="n">
+        <v>56</v>
+      </c>
+      <c r="N15" t="n">
+        <v>56</v>
+      </c>
+      <c r="O15" t="n">
         <v>256</v>
-      </c>
-      <c r="M15" t="n">
-        <v>56</v>
-      </c>
-      <c r="N15" t="n">
-        <v>56</v>
-      </c>
-      <c r="O15" t="n">
-        <v>64</v>
       </c>
       <c r="P15" t="n">
         <v>56</v>
@@ -1376,44 +1382,44 @@
     </row>
     <row r="16" outlineLevel="1">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>/layer1/layer1.1/Add_output_0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="M16" t="n">
         <v>56</v>
@@ -1422,7 +1428,7 @@
         <v>56</v>
       </c>
       <c r="O16" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="P16" t="n">
         <v>56</v>
@@ -1431,21 +1437,21 @@
         <v>56</v>
       </c>
       <c r="S16" t="n">
-        <v>531</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="17" outlineLevel="1">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>/layer1/layer1.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1473,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>256</v>
+      </c>
+      <c r="M17" t="n">
+        <v>56</v>
+      </c>
+      <c r="N17" t="n">
+        <v>56</v>
+      </c>
+      <c r="O17" t="n">
         <v>64</v>
-      </c>
-      <c r="M17" t="n">
-        <v>56</v>
-      </c>
-      <c r="N17" t="n">
-        <v>56</v>
-      </c>
-      <c r="O17" t="n">
-        <v>256</v>
       </c>
       <c r="P17" t="n">
         <v>56</v>
@@ -1496,44 +1502,44 @@
     </row>
     <row r="18" outlineLevel="1">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>/layer1/layer1.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="M18" t="n">
         <v>56</v>
@@ -1542,7 +1548,7 @@
         <v>56</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="P18" t="n">
         <v>56</v>
@@ -1551,21 +1557,21 @@
         <v>56</v>
       </c>
       <c r="S18" t="n">
-        <v>1506</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" outlineLevel="1">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>/layer1/layer1.2/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1593,16 +1599,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>64</v>
+      </c>
+      <c r="M19" t="n">
+        <v>56</v>
+      </c>
+      <c r="N19" t="n">
+        <v>56</v>
+      </c>
+      <c r="O19" t="n">
         <v>256</v>
-      </c>
-      <c r="M19" t="n">
-        <v>56</v>
-      </c>
-      <c r="N19" t="n">
-        <v>56</v>
-      </c>
-      <c r="O19" t="n">
-        <v>64</v>
       </c>
       <c r="P19" t="n">
         <v>56</v>
@@ -1616,44 +1622,44 @@
     </row>
     <row r="20" outlineLevel="1">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>/layer1/layer1.2/Add_output_0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="M20" t="n">
         <v>56</v>
@@ -1662,7 +1668,7 @@
         <v>56</v>
       </c>
       <c r="O20" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>56</v>
@@ -1671,21 +1677,21 @@
         <v>56</v>
       </c>
       <c r="S20" t="n">
-        <v>531</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="21" outlineLevel="1">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>/layer2/layer2.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1713,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="M21" t="n">
         <v>56</v>
@@ -1722,7 +1728,7 @@
         <v>56</v>
       </c>
       <c r="O21" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="P21" t="n">
         <v>56</v>
@@ -1731,49 +1737,49 @@
         <v>56</v>
       </c>
       <c r="S21" t="n">
-        <v>628</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" outlineLevel="1">
       <c r="A22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>/layer2/layer2.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M22" t="n">
         <v>56</v>
@@ -1782,30 +1788,30 @@
         <v>56</v>
       </c>
       <c r="O22" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="P22" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q22" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="S22" t="n">
-        <v>1506</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" outlineLevel="1">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>/layer2/layer2.0/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1833,46 +1839,46 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M23" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="N23" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="O23" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="P23" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q23" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="S23" t="n">
-        <v>513</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" outlineLevel="1">
       <c r="A24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>/layer2/layer2.0/downsample/downsample.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -1881,19 +1887,19 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>56</v>
@@ -1902,7 +1908,7 @@
         <v>56</v>
       </c>
       <c r="O24" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="P24" t="n">
         <v>28</v>
@@ -1911,21 +1917,21 @@
         <v>28</v>
       </c>
       <c r="S24" t="n">
-        <v>556</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" outlineLevel="1">
       <c r="A25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>/layer2/layer2.0/Add_output_0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1938,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1953,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="M25" t="n">
         <v>28</v>
@@ -1971,21 +1977,21 @@
         <v>28</v>
       </c>
       <c r="S25" t="n">
-        <v>260</v>
+        <v>753</v>
       </c>
     </row>
     <row r="26" outlineLevel="1">
       <c r="A26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>/layer2/layer2.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1995,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2013,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="M26" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="N26" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="O26" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="P26" t="n">
         <v>28</v>
@@ -2031,49 +2037,49 @@
         <v>28</v>
       </c>
       <c r="S26" t="n">
-        <v>513</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" outlineLevel="1">
       <c r="A27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>/layer2/layer2.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="M27" t="n">
         <v>28</v>
@@ -2082,7 +2088,7 @@
         <v>28</v>
       </c>
       <c r="O27" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="P27" t="n">
         <v>28</v>
@@ -2091,21 +2097,21 @@
         <v>28</v>
       </c>
       <c r="S27" t="n">
-        <v>753</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" outlineLevel="1">
       <c r="A28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>/layer2/layer2.1/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2133,17 +2139,17 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>128</v>
+      </c>
+      <c r="M28" t="n">
+        <v>28</v>
+      </c>
+      <c r="N28" t="n">
+        <v>28</v>
+      </c>
+      <c r="O28" t="n">
         <v>512</v>
       </c>
-      <c r="M28" t="n">
-        <v>28</v>
-      </c>
-      <c r="N28" t="n">
-        <v>28</v>
-      </c>
-      <c r="O28" t="n">
-        <v>128</v>
-      </c>
       <c r="P28" t="n">
         <v>28</v>
       </c>
@@ -2151,49 +2157,49 @@
         <v>28</v>
       </c>
       <c r="S28" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" outlineLevel="1">
       <c r="A29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>/layer2/layer2.1/Add_output_0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="M29" t="n">
         <v>28</v>
@@ -2202,7 +2208,7 @@
         <v>28</v>
       </c>
       <c r="O29" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="P29" t="n">
         <v>28</v>
@@ -2211,21 +2217,21 @@
         <v>28</v>
       </c>
       <c r="S29" t="n">
-        <v>520</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" outlineLevel="1">
       <c r="A30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>/layer2/layer2.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2253,17 +2259,17 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
+        <v>512</v>
+      </c>
+      <c r="M30" t="n">
+        <v>28</v>
+      </c>
+      <c r="N30" t="n">
+        <v>28</v>
+      </c>
+      <c r="O30" t="n">
         <v>128</v>
       </c>
-      <c r="M30" t="n">
-        <v>28</v>
-      </c>
-      <c r="N30" t="n">
-        <v>28</v>
-      </c>
-      <c r="O30" t="n">
-        <v>512</v>
-      </c>
       <c r="P30" t="n">
         <v>28</v>
       </c>
@@ -2271,49 +2277,49 @@
         <v>28</v>
       </c>
       <c r="S30" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" outlineLevel="1">
       <c r="A31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>/layer2/layer2.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="M31" t="n">
         <v>28</v>
@@ -2322,7 +2328,7 @@
         <v>28</v>
       </c>
       <c r="O31" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="P31" t="n">
         <v>28</v>
@@ -2331,21 +2337,21 @@
         <v>28</v>
       </c>
       <c r="S31" t="n">
-        <v>753</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" outlineLevel="1">
       <c r="A32" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>/layer2/layer2.2/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2373,17 +2379,17 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>128</v>
+      </c>
+      <c r="M32" t="n">
+        <v>28</v>
+      </c>
+      <c r="N32" t="n">
+        <v>28</v>
+      </c>
+      <c r="O32" t="n">
         <v>512</v>
       </c>
-      <c r="M32" t="n">
-        <v>28</v>
-      </c>
-      <c r="N32" t="n">
-        <v>28</v>
-      </c>
-      <c r="O32" t="n">
-        <v>128</v>
-      </c>
       <c r="P32" t="n">
         <v>28</v>
       </c>
@@ -2391,49 +2397,49 @@
         <v>28</v>
       </c>
       <c r="S32" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" outlineLevel="1">
       <c r="A33" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>/layer2/layer2.2/Add_output_0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="M33" t="n">
         <v>28</v>
@@ -2442,7 +2448,7 @@
         <v>28</v>
       </c>
       <c r="O33" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="P33" t="n">
         <v>28</v>
@@ -2451,21 +2457,21 @@
         <v>28</v>
       </c>
       <c r="S33" t="n">
-        <v>520</v>
+        <v>753</v>
       </c>
     </row>
     <row r="34" outlineLevel="1">
       <c r="A34" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>/layer2/layer2.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -2493,17 +2499,17 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>512</v>
+      </c>
+      <c r="M34" t="n">
+        <v>28</v>
+      </c>
+      <c r="N34" t="n">
+        <v>28</v>
+      </c>
+      <c r="O34" t="n">
         <v>128</v>
       </c>
-      <c r="M34" t="n">
-        <v>28</v>
-      </c>
-      <c r="N34" t="n">
-        <v>28</v>
-      </c>
-      <c r="O34" t="n">
-        <v>512</v>
-      </c>
       <c r="P34" t="n">
         <v>28</v>
       </c>
@@ -2511,49 +2517,49 @@
         <v>28</v>
       </c>
       <c r="S34" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" outlineLevel="1">
       <c r="A35" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>/layer2/layer2.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="M35" t="n">
         <v>28</v>
@@ -2562,7 +2568,7 @@
         <v>28</v>
       </c>
       <c r="O35" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="P35" t="n">
         <v>28</v>
@@ -2571,21 +2577,21 @@
         <v>28</v>
       </c>
       <c r="S35" t="n">
-        <v>753</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" outlineLevel="1">
       <c r="A36" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>/layer2/layer2.3/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -2613,17 +2619,17 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>128</v>
+      </c>
+      <c r="M36" t="n">
+        <v>28</v>
+      </c>
+      <c r="N36" t="n">
+        <v>28</v>
+      </c>
+      <c r="O36" t="n">
         <v>512</v>
       </c>
-      <c r="M36" t="n">
-        <v>28</v>
-      </c>
-      <c r="N36" t="n">
-        <v>28</v>
-      </c>
-      <c r="O36" t="n">
-        <v>128</v>
-      </c>
       <c r="P36" t="n">
         <v>28</v>
       </c>
@@ -2631,49 +2637,49 @@
         <v>28</v>
       </c>
       <c r="S36" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" outlineLevel="1">
       <c r="A37" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>/layer2/layer2.3/Add_output_0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="M37" t="n">
         <v>28</v>
@@ -2682,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="O37" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="P37" t="n">
         <v>28</v>
@@ -2691,21 +2697,21 @@
         <v>28</v>
       </c>
       <c r="S37" t="n">
-        <v>520</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" outlineLevel="1">
       <c r="A38" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>/layer3/layer3.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2733,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="M38" t="n">
         <v>28</v>
@@ -2742,7 +2748,7 @@
         <v>28</v>
       </c>
       <c r="O38" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="P38" t="n">
         <v>28</v>
@@ -2751,49 +2757,49 @@
         <v>28</v>
       </c>
       <c r="S38" t="n">
-        <v>260</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" outlineLevel="1">
       <c r="A39" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>/layer3/layer3.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M39" t="n">
         <v>28</v>
@@ -2802,30 +2808,30 @@
         <v>28</v>
       </c>
       <c r="O39" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="P39" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q39" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="S39" t="n">
-        <v>753</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" outlineLevel="1">
       <c r="A40" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>/layer3/layer3.0/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2853,46 +2859,46 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M40" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N40" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O40" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P40" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q40" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="S40" t="n">
-        <v>510</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" outlineLevel="1">
       <c r="A41" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>/layer3/layer3.0/downsample/downsample.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>2</v>
@@ -2901,19 +2907,19 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="M41" t="n">
         <v>28</v>
@@ -2922,7 +2928,7 @@
         <v>28</v>
       </c>
       <c r="O41" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P41" t="n">
         <v>14</v>
@@ -2931,21 +2937,21 @@
         <v>14</v>
       </c>
       <c r="S41" t="n">
-        <v>550</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" outlineLevel="1">
       <c r="A42" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>/layer3/layer3.0/Add_output_0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2958,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2973,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M42" t="n">
         <v>14</v>
@@ -2991,21 +2997,21 @@
         <v>14</v>
       </c>
       <c r="S42" t="n">
-        <v>257</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" outlineLevel="1">
       <c r="A43" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>/layer3/layer3.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -3015,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3033,16 +3039,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M43" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N43" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O43" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P43" t="n">
         <v>14</v>
@@ -3051,49 +3057,49 @@
         <v>14</v>
       </c>
       <c r="S43" t="n">
-        <v>510</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" outlineLevel="1">
       <c r="A44" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>/layer3/layer3.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M44" t="n">
         <v>14</v>
@@ -3102,7 +3108,7 @@
         <v>14</v>
       </c>
       <c r="O44" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P44" t="n">
         <v>14</v>
@@ -3111,21 +3117,21 @@
         <v>14</v>
       </c>
       <c r="S44" t="n">
-        <v>377</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" outlineLevel="1">
       <c r="A45" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>/layer3/layer3.1/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -3153,17 +3159,17 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>256</v>
+      </c>
+      <c r="M45" t="n">
+        <v>14</v>
+      </c>
+      <c r="N45" t="n">
+        <v>14</v>
+      </c>
+      <c r="O45" t="n">
         <v>1024</v>
       </c>
-      <c r="M45" t="n">
-        <v>14</v>
-      </c>
-      <c r="N45" t="n">
-        <v>14</v>
-      </c>
-      <c r="O45" t="n">
-        <v>256</v>
-      </c>
       <c r="P45" t="n">
         <v>14</v>
       </c>
@@ -3171,49 +3177,49 @@
         <v>14</v>
       </c>
       <c r="S45" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" outlineLevel="1">
       <c r="A46" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>/layer3/layer3.1/Add_output_0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M46" t="n">
         <v>14</v>
@@ -3222,7 +3228,7 @@
         <v>14</v>
       </c>
       <c r="O46" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P46" t="n">
         <v>14</v>
@@ -3231,21 +3237,21 @@
         <v>14</v>
       </c>
       <c r="S46" t="n">
-        <v>518</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" outlineLevel="1">
       <c r="A47" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>/layer3/layer3.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -3273,17 +3279,17 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M47" t="n">
+        <v>14</v>
+      </c>
+      <c r="N47" t="n">
+        <v>14</v>
+      </c>
+      <c r="O47" t="n">
         <v>256</v>
       </c>
-      <c r="M47" t="n">
-        <v>14</v>
-      </c>
-      <c r="N47" t="n">
-        <v>14</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1024</v>
-      </c>
       <c r="P47" t="n">
         <v>14</v>
       </c>
@@ -3291,49 +3297,49 @@
         <v>14</v>
       </c>
       <c r="S47" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" outlineLevel="1">
       <c r="A48" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>/layer3/layer3.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M48" t="n">
         <v>14</v>
@@ -3342,7 +3348,7 @@
         <v>14</v>
       </c>
       <c r="O48" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P48" t="n">
         <v>14</v>
@@ -3351,21 +3357,21 @@
         <v>14</v>
       </c>
       <c r="S48" t="n">
-        <v>377</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" outlineLevel="1">
       <c r="A49" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>/layer3/layer3.2/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -3393,17 +3399,17 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
+        <v>256</v>
+      </c>
+      <c r="M49" t="n">
+        <v>14</v>
+      </c>
+      <c r="N49" t="n">
+        <v>14</v>
+      </c>
+      <c r="O49" t="n">
         <v>1024</v>
       </c>
-      <c r="M49" t="n">
-        <v>14</v>
-      </c>
-      <c r="N49" t="n">
-        <v>14</v>
-      </c>
-      <c r="O49" t="n">
-        <v>256</v>
-      </c>
       <c r="P49" t="n">
         <v>14</v>
       </c>
@@ -3411,49 +3417,49 @@
         <v>14</v>
       </c>
       <c r="S49" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" outlineLevel="1">
       <c r="A50" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>/layer3/layer3.2/Add_output_0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M50" t="n">
         <v>14</v>
@@ -3462,7 +3468,7 @@
         <v>14</v>
       </c>
       <c r="O50" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P50" t="n">
         <v>14</v>
@@ -3471,21 +3477,21 @@
         <v>14</v>
       </c>
       <c r="S50" t="n">
-        <v>518</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" outlineLevel="1">
       <c r="A51" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>/layer3/layer3.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -3513,17 +3519,17 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M51" t="n">
+        <v>14</v>
+      </c>
+      <c r="N51" t="n">
+        <v>14</v>
+      </c>
+      <c r="O51" t="n">
         <v>256</v>
       </c>
-      <c r="M51" t="n">
-        <v>14</v>
-      </c>
-      <c r="N51" t="n">
-        <v>14</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1024</v>
-      </c>
       <c r="P51" t="n">
         <v>14</v>
       </c>
@@ -3531,49 +3537,49 @@
         <v>14</v>
       </c>
       <c r="S51" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" outlineLevel="1">
       <c r="A52" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>/layer3/layer3.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M52" t="n">
         <v>14</v>
@@ -3582,7 +3588,7 @@
         <v>14</v>
       </c>
       <c r="O52" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P52" t="n">
         <v>14</v>
@@ -3591,21 +3597,21 @@
         <v>14</v>
       </c>
       <c r="S52" t="n">
-        <v>377</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" outlineLevel="1">
       <c r="A53" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>/layer3/layer3.3/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -3633,17 +3639,17 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
+        <v>256</v>
+      </c>
+      <c r="M53" t="n">
+        <v>14</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14</v>
+      </c>
+      <c r="O53" t="n">
         <v>1024</v>
       </c>
-      <c r="M53" t="n">
-        <v>14</v>
-      </c>
-      <c r="N53" t="n">
-        <v>14</v>
-      </c>
-      <c r="O53" t="n">
-        <v>256</v>
-      </c>
       <c r="P53" t="n">
         <v>14</v>
       </c>
@@ -3651,49 +3657,49 @@
         <v>14</v>
       </c>
       <c r="S53" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" outlineLevel="1">
       <c r="A54" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>/layer3/layer3.3/Add_output_0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M54" t="n">
         <v>14</v>
@@ -3702,7 +3708,7 @@
         <v>14</v>
       </c>
       <c r="O54" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P54" t="n">
         <v>14</v>
@@ -3711,21 +3717,21 @@
         <v>14</v>
       </c>
       <c r="S54" t="n">
-        <v>518</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" outlineLevel="1">
       <c r="A55" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>/layer3/layer3.4/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -3753,17 +3759,17 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M55" t="n">
+        <v>14</v>
+      </c>
+      <c r="N55" t="n">
+        <v>14</v>
+      </c>
+      <c r="O55" t="n">
         <v>256</v>
       </c>
-      <c r="M55" t="n">
-        <v>14</v>
-      </c>
-      <c r="N55" t="n">
-        <v>14</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1024</v>
-      </c>
       <c r="P55" t="n">
         <v>14</v>
       </c>
@@ -3771,49 +3777,49 @@
         <v>14</v>
       </c>
       <c r="S55" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" outlineLevel="1">
       <c r="A56" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>/layer3/layer3.4/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M56" t="n">
         <v>14</v>
@@ -3822,7 +3828,7 @@
         <v>14</v>
       </c>
       <c r="O56" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P56" t="n">
         <v>14</v>
@@ -3831,21 +3837,21 @@
         <v>14</v>
       </c>
       <c r="S56" t="n">
-        <v>377</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57" outlineLevel="1">
       <c r="A57" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>/layer3/layer3.4/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -3873,17 +3879,17 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
+        <v>256</v>
+      </c>
+      <c r="M57" t="n">
+        <v>14</v>
+      </c>
+      <c r="N57" t="n">
+        <v>14</v>
+      </c>
+      <c r="O57" t="n">
         <v>1024</v>
       </c>
-      <c r="M57" t="n">
-        <v>14</v>
-      </c>
-      <c r="N57" t="n">
-        <v>14</v>
-      </c>
-      <c r="O57" t="n">
-        <v>256</v>
-      </c>
       <c r="P57" t="n">
         <v>14</v>
       </c>
@@ -3891,49 +3897,49 @@
         <v>14</v>
       </c>
       <c r="S57" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" outlineLevel="1">
       <c r="A58" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>/layer3/layer3.4/Add_output_0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M58" t="n">
         <v>14</v>
@@ -3942,7 +3948,7 @@
         <v>14</v>
       </c>
       <c r="O58" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P58" t="n">
         <v>14</v>
@@ -3951,21 +3957,21 @@
         <v>14</v>
       </c>
       <c r="S58" t="n">
-        <v>518</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" outlineLevel="1">
       <c r="A59" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>/layer3/layer3.5/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -3993,17 +3999,17 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M59" t="n">
+        <v>14</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14</v>
+      </c>
+      <c r="O59" t="n">
         <v>256</v>
       </c>
-      <c r="M59" t="n">
-        <v>14</v>
-      </c>
-      <c r="N59" t="n">
-        <v>14</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1024</v>
-      </c>
       <c r="P59" t="n">
         <v>14</v>
       </c>
@@ -4011,49 +4017,49 @@
         <v>14</v>
       </c>
       <c r="S59" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" outlineLevel="1">
       <c r="A60" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>/layer3/layer3.5/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="M60" t="n">
         <v>14</v>
@@ -4062,7 +4068,7 @@
         <v>14</v>
       </c>
       <c r="O60" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="P60" t="n">
         <v>14</v>
@@ -4071,21 +4077,21 @@
         <v>14</v>
       </c>
       <c r="S60" t="n">
-        <v>377</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" outlineLevel="1">
       <c r="A61" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>/layer3/layer3.5/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -4113,17 +4119,17 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
+        <v>256</v>
+      </c>
+      <c r="M61" t="n">
+        <v>14</v>
+      </c>
+      <c r="N61" t="n">
+        <v>14</v>
+      </c>
+      <c r="O61" t="n">
         <v>1024</v>
       </c>
-      <c r="M61" t="n">
-        <v>14</v>
-      </c>
-      <c r="N61" t="n">
-        <v>14</v>
-      </c>
-      <c r="O61" t="n">
-        <v>256</v>
-      </c>
       <c r="P61" t="n">
         <v>14</v>
       </c>
@@ -4131,49 +4137,49 @@
         <v>14</v>
       </c>
       <c r="S61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" outlineLevel="1">
       <c r="A62" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>/layer3/layer3.5/Add_output_0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M62" t="n">
         <v>14</v>
@@ -4182,7 +4188,7 @@
         <v>14</v>
       </c>
       <c r="O62" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P62" t="n">
         <v>14</v>
@@ -4191,21 +4197,21 @@
         <v>14</v>
       </c>
       <c r="S62" t="n">
-        <v>518</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" outlineLevel="1">
       <c r="A63" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>/layer4/layer4.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -4233,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M63" t="n">
         <v>14</v>
@@ -4242,7 +4248,7 @@
         <v>14</v>
       </c>
       <c r="O63" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="P63" t="n">
         <v>14</v>
@@ -4251,49 +4257,49 @@
         <v>14</v>
       </c>
       <c r="S63" t="n">
-        <v>257</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64" outlineLevel="1">
       <c r="A64" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>/layer4/layer4.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="M64" t="n">
         <v>14</v>
@@ -4302,30 +4308,30 @@
         <v>14</v>
       </c>
       <c r="O64" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="P64" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q64" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S64" t="n">
-        <v>377</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="65" outlineLevel="1">
       <c r="A65" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>/layer4/layer4.0/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -4353,46 +4359,46 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="M65" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N65" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O65" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="P65" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q65" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S65" t="n">
-        <v>515</v>
+        <v>657</v>
       </c>
     </row>
     <row r="66" outlineLevel="1">
       <c r="A66" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>/layer4/layer4.0/downsample/downsample.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>2</v>
@@ -4401,19 +4407,19 @@
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M66" t="n">
         <v>14</v>
@@ -4422,7 +4428,7 @@
         <v>14</v>
       </c>
       <c r="O66" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="P66" t="n">
         <v>7</v>
@@ -4431,21 +4437,21 @@
         <v>7</v>
       </c>
       <c r="S66" t="n">
-        <v>1424</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="67" outlineLevel="1">
       <c r="A67" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>/layer4/layer4.0/Add_output_0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -4458,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4473,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="M67" t="n">
         <v>7</v>
@@ -4491,21 +4497,21 @@
         <v>7</v>
       </c>
       <c r="S67" t="n">
-        <v>657</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" outlineLevel="1">
       <c r="A68" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>/layer4/layer4.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -4515,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4533,16 +4539,16 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="M68" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N68" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O68" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="P68" t="n">
         <v>7</v>
@@ -4551,49 +4557,49 @@
         <v>7</v>
       </c>
       <c r="S68" t="n">
-        <v>1312</v>
+        <v>519</v>
       </c>
     </row>
     <row r="69" outlineLevel="1">
       <c r="A69" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>/layer4/layer4.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="M69" t="n">
         <v>7</v>
@@ -4602,7 +4608,7 @@
         <v>7</v>
       </c>
       <c r="O69" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="P69" t="n">
         <v>7</v>
@@ -4611,21 +4617,21 @@
         <v>7</v>
       </c>
       <c r="S69" t="n">
-        <v>189</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="70" outlineLevel="1">
       <c r="A70" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>/layer4/layer4.1/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -4653,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="M70" t="n">
         <v>7</v>
@@ -4662,7 +4668,7 @@
         <v>7</v>
       </c>
       <c r="O70" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="P70" t="n">
         <v>7</v>
@@ -4671,49 +4677,49 @@
         <v>7</v>
       </c>
       <c r="S70" t="n">
-        <v>519</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" outlineLevel="1">
       <c r="A71" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>/layer4/layer4.1/Add_output_0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="M71" t="n">
         <v>7</v>
@@ -4722,7 +4728,7 @@
         <v>7</v>
       </c>
       <c r="O71" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="P71" t="n">
         <v>7</v>
@@ -4731,21 +4737,21 @@
         <v>7</v>
       </c>
       <c r="S71" t="n">
-        <v>1475</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" outlineLevel="1">
       <c r="A72" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>/layer4/layer4.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -4773,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="M72" t="n">
         <v>7</v>
@@ -4782,7 +4788,7 @@
         <v>7</v>
       </c>
       <c r="O72" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="P72" t="n">
         <v>7</v>
@@ -4791,49 +4797,49 @@
         <v>7</v>
       </c>
       <c r="S72" t="n">
-        <v>657</v>
+        <v>519</v>
       </c>
     </row>
     <row r="73" outlineLevel="1">
       <c r="A73" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>/layer4/layer4.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv&gt;Relu</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="M73" t="n">
         <v>7</v>
@@ -4842,7 +4848,7 @@
         <v>7</v>
       </c>
       <c r="O73" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="P73" t="n">
         <v>7</v>
@@ -4851,21 +4857,21 @@
         <v>7</v>
       </c>
       <c r="S73" t="n">
-        <v>189</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="74" outlineLevel="1">
       <c r="A74" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>/layer4/layer4.2/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -4893,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="M74" t="n">
         <v>7</v>
@@ -4902,7 +4908,7 @@
         <v>7</v>
       </c>
       <c r="O74" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="P74" t="n">
         <v>7</v>
@@ -4911,49 +4917,49 @@
         <v>7</v>
       </c>
       <c r="S74" t="n">
-        <v>519</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" outlineLevel="1">
       <c r="A75" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>/layer4/layer4.2/Add_output_0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Conv&gt;Relu</t>
+          <t>Add&gt;Relu</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="M75" t="n">
         <v>7</v>
@@ -4962,7 +4968,7 @@
         <v>7</v>
       </c>
       <c r="O75" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="P75" t="n">
         <v>7</v>
@@ -4971,34 +4977,34 @@
         <v>7</v>
       </c>
       <c r="S75" t="n">
-        <v>1475</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" outlineLevel="1">
       <c r="A76" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>/avgpool/GlobalAveragePool_output_0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>GlobalAveragePool</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5013,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="M76" t="n">
         <v>7</v>
@@ -5025,27 +5031,27 @@
         <v>2048</v>
       </c>
       <c r="P76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S76" t="n">
-        <v>657</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" outlineLevel="1">
       <c r="A77" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>output</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Add&gt;Relu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -5058,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5076,48 +5082,45 @@
         <v>2048</v>
       </c>
       <c r="M77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>2048</v>
+        <v>2</v>
       </c>
       <c r="P77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S77" t="n">
-        <v>189</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" outlineLevel="1">
       <c r="A78" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>post_0_0_softmax</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GlobalAveragePool</t>
+          <t>softmax</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="n">
         <v>-1</v>
       </c>
       <c r="H78" t="n">
@@ -5133,16 +5136,16 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>2048</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>2048</v>
+        <v>2</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -5151,170 +5154,53 @@
         <v>1</v>
       </c>
       <c r="S78" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" outlineLevel="1">
       <c r="A79" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>output</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Conv</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2048</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O79" t="n">
-        <v>2</v>
-      </c>
-      <c r="P79" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>1</v>
+          <t>Total</t>
+        </is>
       </c>
       <c r="S79" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" outlineLevel="1">
-      <c r="A80" t="n">
-        <v>75</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>post_0_0_softmax</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>softmax</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1</v>
-      </c>
-      <c r="O80" t="n">
-        <v>2</v>
-      </c>
-      <c r="P80" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" outlineLevel="1">
-      <c r="A81" t="n">
-        <v>76</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="S81" t="n">
-        <v>41718</v>
+        <v>41295</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="S80" s="5" t="inlineStr">
+        <is>
+          <t>Calculated with DRP-AI running 400MHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="S81" s="5" t="inlineStr">
+        <is>
+          <t>Not considering bus congestion outside of DRP-AI Accelerator.</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="S82" s="5" t="inlineStr">
         <is>
-          <t>Calculated with DRP-AI running 400MHz</t>
+          <t>Not considering memory bandwidth outside of DRP-AI Accelerator.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="S83" s="5" t="inlineStr">
         <is>
-          <t>Not considering bus congestion outside of DRP-AI Accelerator.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="S84" s="5" t="inlineStr">
-        <is>
-          <t>Not considering memory bandwidth outside of DRP-AI Accelerator.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="S85" s="5" t="inlineStr">
-        <is>
           <t>The value may be changed without prior notice.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:S80"/>
-  <conditionalFormatting sqref="S5:S80">
+  <autoFilter ref="A4:S78"/>
+  <conditionalFormatting sqref="S5:S78">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
